--- a/Data/Simul/Test3/Calib_1.xlsx
+++ b/Data/Simul/Test3/Calib_1.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1424406165733032</v>
+        <v>0.1424478742173257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1399875678833797</v>
+        <v>0.1399973592205862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1421432823740395</v>
+        <v>0.1421498177371731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1409557139925649</v>
+        <v>0.1409622795014517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1420070138174158</v>
+        <v>0.14200881394155</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1564068278351027</v>
+        <v>0.1564848000777973</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1740417469726894</v>
+        <v>0.1742222528214273</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1644084639175635</v>
+        <v>0.1648283112814358</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1841248849284023</v>
+        <v>0.1847951929089092</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1662769776697615</v>
+        <v>0.1670536465883944</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1694090915079575</v>
+        <v>0.1701485803269714</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1984383866743217</v>
+        <v>0.1992622233094535</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2049998809440726</v>
+        <v>0.2057245453874517</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2356389938609743</v>
+        <v>0.2366481145522464</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2029106725678532</v>
+        <v>0.2036654109721653</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1588053394043188</v>
+        <v>0.1592225652977459</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2835522152714489</v>
+        <v>0.2845567925886772</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2627216733559117</v>
+        <v>0.2638281777426003</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2823081399544866</v>
+        <v>0.2834324129470428</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3443479651397117</v>
+        <v>0.3458182824996011</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2724309994060156</v>
+        <v>0.2734085416445392</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1305399524924541</v>
+        <v>0.1308493569453798</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2188024371057406</v>
+        <v>0.2202830822995504</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3684577970458512</v>
+        <v>0.3707044231340127</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4536496979439784</v>
+        <v>0.4562615526727356</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4318201045522044</v>
+        <v>0.4350475683655575</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5147694140013328</v>
+        <v>0.5182008423140032</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6589667908235353</v>
+        <v>0.6621691683397583</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1449072389703657</v>
+        <v>0.1448868720186604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1523513770747632</v>
+        <v>0.1523283720714817</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1463692126639087</v>
+        <v>0.1463568035572239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1499844255261711</v>
+        <v>0.1499728599507689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1464987234181402</v>
+        <v>0.1465024564953963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1275474271478736</v>
+        <v>0.1274029033376844</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1079317608829459</v>
+        <v>0.1076241950459236</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1278406446291272</v>
+        <v>0.1272206110597952</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1120452760516464</v>
+        <v>0.1110252925089681</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1387730068348044</v>
+        <v>0.1376836849075983</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09471864333858532</v>
+        <v>0.09392057101259572</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07655920570324826</v>
+        <v>0.07624973815773468</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1073421739496594</v>
+        <v>0.1070468338108551</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08573717304079241</v>
+        <v>0.08519214903456032</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1528009780112479</v>
+        <v>0.1519107890358857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1988362203353693</v>
+        <v>0.1977623775057334</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05554374771697747</v>
+        <v>0.05549405772675467</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02808634755064073</v>
+        <v>0.02806299922472305</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01083706346902288</v>
+        <v>0.01081161528510981</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003536657907239293</v>
+        <v>0.003507849058322412</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001764311337877712</v>
+        <v>0.001746994428649549</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0004561853215437166</v>
+        <v>0.0004516896040715501</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0002617819754385964</v>
+        <v>0.0002606534919733482</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0003135877065267258</v>
+        <v>0.0003078867250787903</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.024029867470992e-05</v>
+        <v>3.941104420229147e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.495498275573633e-06</v>
+        <v>2.447496363013546e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.040041058665115e-06</v>
+        <v>1.998365146913708e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.224763397072502e-06</v>
+        <v>2.203355946544023e-06</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1449072413850902</v>
+        <v>0.1448868743994556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1523513912057818</v>
+        <v>0.1523283861586897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1463692168475404</v>
+        <v>0.1463568077137109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1499844353867125</v>
+        <v>0.149972869784176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1464987280765733</v>
+        <v>0.1465024611502856</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1275478553142091</v>
+        <v>0.1274033323106897</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1079329345492237</v>
+        <v>0.1076253693269593</v>
       </c>
       <c r="I4" t="n">
-        <v>0.12784207659855</v>
+        <v>0.1272220476055703</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1120471963701865</v>
+        <v>0.1110272087837814</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1387749708714812</v>
+        <v>0.1376856498124703</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1653001414865132</v>
+        <v>0.1639740449220267</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1552705534166149</v>
+        <v>0.153788586239106</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1213057705768486</v>
+        <v>0.1200344990902366</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1081135239813123</v>
+        <v>0.1071476723363124</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06855645372073799</v>
+        <v>0.06789497638530569</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05623200501433911</v>
+        <v>0.05563432075894174</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09708570735745634</v>
+        <v>0.09605502665394385</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1351003884252621</v>
+        <v>0.1337778758870258</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1555164454719054</v>
+        <v>0.1542755270731236</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1335660903720693</v>
+        <v>0.1327129380419189</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2009137562997871</v>
+        <v>0.1997603448927691</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3705514016464757</v>
+        <v>0.3685628070052241</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2171864064427036</v>
+        <v>0.2153991761733277</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.103265567225913</v>
+        <v>0.1022907335667907</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04285914651973476</v>
+        <v>0.04243929062038437</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01974819435499413</v>
+        <v>0.01952307317370493</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.005930771115441349</v>
+        <v>0.005854182576368205</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0009642711873417137</v>
+        <v>0.0009540321215665229</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1449081503227563</v>
+        <v>0.1448877705643152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1523567107263429</v>
+        <v>0.1523336891859305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1463707916401253</v>
+        <v>0.1463583722869178</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1499881472431549</v>
+        <v>0.14997657142503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1465004816318165</v>
+        <v>0.146504213370566</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1275419663947481</v>
+        <v>0.1273974262234908</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1079137647856844</v>
+        <v>0.107606183914502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1278186385734067</v>
+        <v>0.1271985205777741</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1120150240846715</v>
+        <v>0.1109950933884493</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1387423673901141</v>
+        <v>0.1376530162186824</v>
       </c>
       <c r="L5" t="n">
-        <v>0.140724444417575</v>
+        <v>0.1395765468723796</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1655044224276156</v>
+        <v>0.164127169691628</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1722719633444838</v>
+        <v>0.1707354803616349</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1990462331502236</v>
+        <v>0.1974113120706698</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1729182206637615</v>
+        <v>0.1714028070683031</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1348946546443143</v>
+        <v>0.1335660553676419</v>
       </c>
       <c r="R5" t="n">
-        <v>0.241689673700497</v>
+        <v>0.2395214922523737</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2256873280429588</v>
+        <v>0.2238130731603562</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2446606755464906</v>
+        <v>0.2425815695924288</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2974603359579207</v>
+        <v>0.2950311878131617</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2542482933292444</v>
+        <v>0.252045968546502</v>
       </c>
       <c r="W5" t="n">
-        <v>0.139922015756057</v>
+        <v>0.1385270579144762</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2544401171873558</v>
+        <v>0.2527538760008902</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3438948770286452</v>
+        <v>0.3415960955625906</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4024577639879664</v>
+        <v>0.3997064552173974</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4998642852716764</v>
+        <v>0.4966684608040313</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.4641306891182551</v>
+        <v>0.460738730569472</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.337467930543042</v>
+        <v>0.3342636818112674</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1395338122802574</v>
+        <v>0.139563459177463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1284792418467999</v>
+        <v>0.1285109821246616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.137167085918525</v>
+        <v>0.1371828826511729</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1317943488416422</v>
+        <v>0.1318085392594767</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1370741434249119</v>
+        <v>0.1370653416004922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1508985544795863</v>
+        <v>0.1510327795135351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626601660418681</v>
+        <v>0.1629332755751522</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1429407532739505</v>
+        <v>0.1434403802022685</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1472051001882354</v>
+        <v>0.148044025119292</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1254155936824065</v>
+        <v>0.1262554683192442</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1519179043775352</v>
+        <v>0.1529109904148185</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1383185019997895</v>
+        <v>0.1389940422591141</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1047029668188356</v>
+        <v>0.1051119827245694</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09018331009907957</v>
+        <v>0.09068171028085666</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05532707591556588</v>
+        <v>0.0555920037602339</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05128023181365753</v>
+        <v>0.05148485720815063</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08383155376263599</v>
+        <v>0.08415291547925796</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1328176278903298</v>
+        <v>0.133434660779379</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1338557807638806</v>
+        <v>0.134798729236918</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1003142377730952</v>
+        <v>0.1011942330166253</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1188594669148243</v>
+        <v>0.1199284788810118</v>
       </c>
       <c r="W6" t="n">
-        <v>0.132695866587229</v>
+        <v>0.1337652341948702</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1466167520669498</v>
+        <v>0.1475756816030388</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09668114995160323</v>
+        <v>0.09726938362832785</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06027764989966385</v>
+        <v>0.0606350305368169</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02878435351919873</v>
+        <v>0.02890874987517139</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.008901877834376185</v>
+        <v>0.008926787201305622</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001493595506833987</v>
+        <v>0.001501120976340458</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1436095290443502</v>
+        <v>0.1436051441496886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1454172219733626</v>
+        <v>0.1454139105381684</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1441383014857722</v>
+        <v>0.1441376845540576</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1450203053473967</v>
+        <v>0.1450202501972676</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1440812711631844</v>
+        <v>0.1440851445216732</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1588203294251959</v>
+        <v>0.1589085512019235</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1763096289206441</v>
+        <v>0.1765072286641508</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1654170310074831</v>
+        <v>0.1658586742920776</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1840970366197185</v>
+        <v>0.1848095420922575</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1653140747492577</v>
+        <v>0.1661236922816871</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1246356374964891</v>
+        <v>0.1251812788222007</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1260219661709898</v>
+        <v>0.1270145233666331</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1832478297744627</v>
+        <v>0.184807331917291</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1896431866641072</v>
+        <v>0.1907793850617034</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2911347266431936</v>
+        <v>0.2929149347790974</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3488375524855843</v>
+        <v>0.3510159340361699</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1540155098385732</v>
+        <v>0.1556198052948481</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08458360128053444</v>
+        <v>0.08547803090685495</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03774321440517681</v>
+        <v>0.03808647752245013</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01749048291097682</v>
+        <v>0.01755910387330045</v>
       </c>
       <c r="V7" t="n">
-        <v>0.009177699403591128</v>
+        <v>0.009199121350291262</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002508426196426956</v>
+        <v>0.0025138349995672</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001617309447585824</v>
+        <v>0.001630016857509747</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002401486979423042</v>
+        <v>0.002388388140095167</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0003718071616848115</v>
+        <v>0.0003689690089274856</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.366629191133779e-05</v>
+        <v>2.353334620704797e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.777253326566977e-05</v>
+        <v>2.758490743489994e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.523818632828072e-05</v>
+        <v>3.538596210311515e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1396934114238771</v>
+        <v>0.1397220054730915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1290564892895701</v>
+        <v>0.1290873007004819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1374421090700887</v>
+        <v>0.1374576314997437</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1322726236623578</v>
+        <v>0.1322866298818292</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137339638467958</v>
+        <v>0.1373315689200364</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1512370394032842</v>
+        <v>0.1513702073348791</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1632099978469443</v>
+        <v>0.1634814946518848</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1437323919999189</v>
+        <v>0.1442314549810783</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1484654817571393</v>
+        <v>0.1493036451983425</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1267030088021744</v>
+        <v>0.1275448418719234</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1532941373753448</v>
+        <v>0.1542879876290075</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1398869636074201</v>
+        <v>0.1405637169763306</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1061294145916371</v>
+        <v>0.1065393267079615</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09163757920351068</v>
+        <v>0.09213965666365101</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05635187247763987</v>
+        <v>0.05661907799900869</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05111399630241661</v>
+        <v>0.05131388982561649</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08428159235241116</v>
+        <v>0.08459991000414471</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1310030334543624</v>
+        <v>0.1316051822990609</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1350786803890372</v>
+        <v>0.136013668342927</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1032842299389871</v>
+        <v>0.1041764056970703</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1426054733086598</v>
+        <v>0.1439105502562368</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2233261519998137</v>
+        <v>0.2253300193364111</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1610751957742259</v>
+        <v>0.1620975135737097</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08498553406203747</v>
+        <v>0.08544308924310409</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04034369418829695</v>
+        <v>0.04054929089953607</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01975690051173946</v>
+        <v>0.01982616693896488</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.006237435356270337</v>
+        <v>0.006249874066269155</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.00106994898952184</v>
+        <v>0.001074407433017642</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1438432950114401</v>
+        <v>0.1438148969093502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142185974477057</v>
+        <v>0.1421508936338813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1446142874312485</v>
+        <v>0.1445732552345869</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1436107306998433</v>
+        <v>0.1435623447665716</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1449957993117447</v>
+        <v>0.1449575480236177</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1285126541331288</v>
+        <v>0.1285601999146236</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1219368489564004</v>
+        <v>0.1229061938164317</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1462946172935537</v>
+        <v>0.1472239043878004</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1126003436390966</v>
+        <v>0.1136504151816853</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08042364930709797</v>
+        <v>0.08153412727920366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0717102564369409</v>
+        <v>0.0727927767093719</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06281803504038359</v>
+        <v>0.06383951220109939</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0723525461351837</v>
+        <v>0.07341636023783975</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06290907723986869</v>
+        <v>0.0639422422610582</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08057763177121034</v>
+        <v>0.08176927672368282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04063181551999249</v>
+        <v>0.04162050306472154</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02460937874425603</v>
+        <v>0.02534183904937476</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01471808032731626</v>
+        <v>0.01530868236911617</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09929799806459613</v>
+        <v>0.1009920125174365</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06888306345975276</v>
+        <v>0.07045269106345511</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04815277430342028</v>
+        <v>0.04952184025138782</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08082096722450385</v>
+        <v>0.08275306893904781</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03295009316874127</v>
+        <v>0.03418617828779223</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.008497993424080483</v>
+        <v>0.008952843548168757</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03041433457577664</v>
+        <v>0.03169768387574628</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06812211134198509</v>
+        <v>0.07074006532145657</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03235596156679752</v>
+        <v>0.03400104403623559</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01417719771371967</v>
+        <v>0.01489187138227371</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1405331806705964</v>
+        <v>0.1406204878837626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1465404314269785</v>
+        <v>0.1466284344931627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1382833080869658</v>
+        <v>0.1384047279847992</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1424206900126272</v>
+        <v>0.1425479121476737</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1382293407252999</v>
+        <v>0.1383080189362721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1645295194453478</v>
+        <v>0.1644696963506362</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1816512311356705</v>
+        <v>0.1801865967847166</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1534700453903067</v>
+        <v>0.151990599084019</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2036429559174201</v>
+        <v>0.2021619843675927</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2442855230511091</v>
+        <v>0.2428592152115112</v>
       </c>
       <c r="L3" t="n">
-        <v>0.353363199397094</v>
+        <v>0.3508516780592419</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4329647618873972</v>
+        <v>0.4299282791965315</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3157339910196099</v>
+        <v>0.3137192959581201</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4169008429363701</v>
+        <v>0.4138654960630588</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3476073661354074</v>
+        <v>0.3451193053890897</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6125969584145028</v>
+        <v>0.607621714289307</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7149443814716741</v>
+        <v>0.7101304008172211</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7633078919259971</v>
+        <v>0.7583967586141346</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3409803942961768</v>
+        <v>0.3372691228888495</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5098573617139157</v>
+        <v>0.5046484435932088</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6254534573871185</v>
+        <v>0.6198260312327195</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5326671675732317</v>
+        <v>0.5273303019539155</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7196568992826829</v>
+        <v>0.7141036445635137</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7925298883139241</v>
+        <v>0.7881837934431204</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7221420152007205</v>
+        <v>0.7164585726843988</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6402710953443517</v>
+        <v>0.6331215037563235</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6949102186222541</v>
+        <v>0.6887996369070291</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7080560994183033</v>
+        <v>0.7033726892867816</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1405331763128753</v>
+        <v>0.1406204836623023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1465404354943534</v>
+        <v>0.1466284387183252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1382833001388514</v>
+        <v>0.1384047202289898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1424206874577135</v>
+        <v>0.1425479098108879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1382293317321716</v>
+        <v>0.1383080100987742</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1645289793633591</v>
+        <v>0.1644691596254653</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1816509401393102</v>
+        <v>0.1801863292622423</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1534709064466492</v>
+        <v>0.1519914663876293</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2036436962302241</v>
+        <v>0.202162733877644</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2442851511978141</v>
+        <v>0.2428588713542739</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1775292632645639</v>
+        <v>0.1769250630208123</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1396193569868379</v>
+        <v>0.1393375447660508</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2082748149171327</v>
+        <v>0.2072118948435093</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1535631231633269</v>
+        <v>0.1531832209934549</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1555953747139683</v>
+        <v>0.1552241890284912</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05595752727871401</v>
+        <v>0.05650800431593965</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02701693001977946</v>
+        <v>0.02746420625486388</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009382289374201949</v>
+        <v>0.009675020141249026</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1146263454196143</v>
+        <v>0.1151927694269503</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06060364504886406</v>
+        <v>0.06132838576936145</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02610320918439754</v>
+        <v>0.02663736184719364</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01161505373985456</v>
+        <v>0.01190241713848386</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003100336349525133</v>
+        <v>0.003228625954824214</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0001926731264109914</v>
+        <v>0.0002068418972274159</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0002440113226534793</v>
+        <v>0.0002611273913126487</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.716706195021833e-05</v>
+        <v>9.404714005377904e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.00329710571064e-05</v>
+        <v>1.102047617841908e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.399287544190223e-07</v>
+        <v>1.040564400847305e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1405315357824414</v>
+        <v>0.1406188944268303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1465419664736992</v>
+        <v>0.1466300290984221</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1382803080100364</v>
+        <v>0.1384018004928785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.142419725481349</v>
+        <v>0.1425470299497847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1382259461361089</v>
+        <v>0.1383046830917674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1645342060015812</v>
+        <v>0.1644744044090422</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1816513714557657</v>
+        <v>0.1801864702129439</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1534519164578367</v>
+        <v>0.1519724747395133</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2036255281562637</v>
+        <v>0.2021445356135834</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2442853859126506</v>
+        <v>0.2428587644131368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2191018463721331</v>
+        <v>0.2180916973552255</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1925438986310704</v>
+        <v>0.1918746785372973</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2203448227531326</v>
+        <v>0.2192503513814843</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1924767868660671</v>
+        <v>0.1918401441111283</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2468572674793296</v>
+        <v>0.2456403417110215</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.123368876271662</v>
+        <v>0.1239248786922685</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07432340370478961</v>
+        <v>0.07505658416797578</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04391059042968586</v>
+        <v>0.04479490237285276</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3028175282499302</v>
+        <v>0.3020310882415446</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2087425318927969</v>
+        <v>0.2093799895788581</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1344373868292649</v>
+        <v>0.1356615326374367</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2195324176672459</v>
+        <v>0.2206234257456229</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08240320876026754</v>
+        <v>0.08397414378427738</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01385150052190627</v>
+        <v>0.0143866139844927</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05789708905330621</v>
+        <v>0.05945009118852478</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.09478287830283633</v>
+        <v>0.09725388142446714</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0337035741178038</v>
+        <v>0.03505316581278635</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01111975119615926</v>
+        <v>0.01157879990353379</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.146070406070342</v>
+        <v>0.1459403543717724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1368013530809204</v>
+        <v>0.1366772313121131</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1493823578741904</v>
+        <v>0.1492030227053083</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1428513834752558</v>
+        <v>0.1426692704947687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1490821232699626</v>
+        <v>0.1489781292759287</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1261528767065998</v>
+        <v>0.1261735967563964</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1073527891788893</v>
+        <v>0.1085586271726745</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1256664528464478</v>
+        <v>0.1269250278068246</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08418565271199439</v>
+        <v>0.08533985948744842</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05503414285057416</v>
+        <v>0.05606025380109882</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03911835105023718</v>
+        <v>0.03995043329363254</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03041376324075194</v>
+        <v>0.03110457389491642</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04688674760535406</v>
+        <v>0.04779334514333388</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03393996042245948</v>
+        <v>0.03469122968030165</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03271171077287647</v>
+        <v>0.03344959259223451</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01094911529563503</v>
+        <v>0.01133940740627006</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004992995429421196</v>
+        <v>0.005207088419183198</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001515480707682271</v>
+        <v>0.001604682793800939</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01915066794437281</v>
+        <v>0.01975563225106392</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009442500861861077</v>
+        <v>0.009811701424812585</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004659984969009277</v>
+        <v>0.004879133538533535</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00395740601247235</v>
+        <v>0.00414286347735247</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001176692759980105</v>
+        <v>0.001251178724079782</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.392320846837473e-05</v>
+        <v>9.184189070817171e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0002063645716704374</v>
+        <v>0.0002241248008464048</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.607879781034791e-05</v>
+        <v>8.329574184327742e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.999713472382718e-06</v>
+        <v>1.003080894689889e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.723529631063173e-07</v>
+        <v>9.798022759149504e-07</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1425106241384904</v>
+        <v>0.1425321919380715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1442894563485627</v>
+        <v>0.1443048094052448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1419860708500147</v>
+        <v>0.1420148706968572</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1433435308664902</v>
+        <v>0.1433684329960664</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1423019384978406</v>
+        <v>0.1423099926030074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1255472877550453</v>
+        <v>0.1256368602524437</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1179945485498528</v>
+        <v>0.1190132181140731</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1413710797883592</v>
+        <v>0.1423703081916227</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1073657816709133</v>
+        <v>0.108450896487192</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07602063667971605</v>
+        <v>0.07713326392727429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09954740139286283</v>
+        <v>0.1009217114278874</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1108036647298267</v>
+        <v>0.1123832060499606</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08898172403908992</v>
+        <v>0.09027288576255461</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1058351771548665</v>
+        <v>0.107346716451854</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1033959492240828</v>
+        <v>0.1047981062958739</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.145253983795015</v>
+        <v>0.1473458246414216</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1489447013584907</v>
+        <v>0.1514116027515823</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1655670630242255</v>
+        <v>0.1685279453578281</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1029692148859978</v>
+        <v>0.1039726516942721</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1324322154401009</v>
+        <v>0.1339519896175361</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1566717732623476</v>
+        <v>0.1587395915183696</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1488977017292903</v>
+        <v>0.1506135931673992</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1600191222800071</v>
+        <v>0.1625163049101002</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1847995126332222</v>
+        <v>0.1881291350145753</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1890263077759474</v>
+        <v>0.1918319332301446</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1966343239050968</v>
+        <v>0.198678145760383</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2390080358194817</v>
+        <v>0.2421215343594628</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2666448239786551</v>
+        <v>0.2701542621959231</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1459777820138144</v>
+        <v>0.1458526908079107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1371003826984288</v>
+        <v>0.1369801633388506</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1491703676086927</v>
+        <v>0.1489976026565798</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1429332520067212</v>
+        <v>0.1427570998342468</v>
       </c>
       <c r="F8" t="n">
-        <v>0.148935520326872</v>
+        <v>0.1488336179706326</v>
       </c>
       <c r="G8" t="n">
-        <v>0.126194476594938</v>
+        <v>0.1262160826913925</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1077622705841109</v>
+        <v>0.1089625646369181</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1262749817768469</v>
+        <v>0.1275262194025907</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08493604167408771</v>
+        <v>0.08608957498485423</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05566551100103797</v>
+        <v>0.05669550401350142</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03962968208616804</v>
+        <v>0.04046664013382821</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03083651948373228</v>
+        <v>0.03153220535414389</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04742535353049717</v>
+        <v>0.04833586667315789</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03437503221704129</v>
+        <v>0.03513095043914424</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0332546999031249</v>
+        <v>0.03399918825960618</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01124172342447878</v>
+        <v>0.01163966759007147</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005168209271588908</v>
+        <v>0.00538827853979901</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00159860421089123</v>
+        <v>0.001692008351018294</v>
       </c>
       <c r="T8" t="n">
-        <v>0.020157851139312</v>
+        <v>0.02078672297988294</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01003868158270843</v>
+        <v>0.01042679895276776</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004521414064441852</v>
+        <v>0.004734508974359102</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002509286053401269</v>
+        <v>0.002634329578178223</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0006936473987959599</v>
+        <v>0.0007399237754123602</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.450877198768043e-05</v>
+        <v>4.893022170707681e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.98774999252513e-05</v>
+        <v>7.646682902652867e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.634524596943038e-05</v>
+        <v>2.906085547263373e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.177189133391195e-06</v>
+        <v>3.56759936100963e-06</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.154114451314103e-07</v>
+        <v>3.568648109830251e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1418213052790021</v>
+        <v>0.1418200297570382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1402430666340307</v>
+        <v>0.140243256788116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1374999693460838</v>
+        <v>0.1375029478838265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1407333703347494</v>
+        <v>0.1407337711006596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1420812328532041</v>
+        <v>0.1420819267975316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1640576052308634</v>
+        <v>0.1640448498742228</v>
       </c>
       <c r="H2" t="n">
-        <v>0.149435024954359</v>
+        <v>0.1494400304214479</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1631361894249594</v>
+        <v>0.1631752391347981</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1794835405040797</v>
+        <v>0.1794837784364816</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2053476985715257</v>
+        <v>0.2055518120845396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2237004994281746</v>
+        <v>0.2239715131256576</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2536015415036668</v>
+        <v>0.253748129734013</v>
       </c>
       <c r="N2" t="n">
-        <v>0.24621035358283</v>
+        <v>0.2459707061065668</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2776709451642414</v>
+        <v>0.2776085766677499</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3138498190962049</v>
+        <v>0.3135184346690654</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2788348033453781</v>
+        <v>0.2784247917831656</v>
       </c>
       <c r="R2" t="n">
-        <v>0.362405051736572</v>
+        <v>0.3622409260021315</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4805197977369449</v>
+        <v>0.4807004667726707</v>
       </c>
       <c r="T2" t="n">
-        <v>0.43441076663558</v>
+        <v>0.4343746829336631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3093586585218204</v>
+        <v>0.3075833241142412</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2417378670120246</v>
+        <v>0.2401790249143145</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2165339696155147</v>
+        <v>0.2146191600487387</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002571502929152095</v>
+        <v>0.002521995304650064</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001931574622194362</v>
+        <v>0.001894626488978108</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0007851396471183978</v>
+        <v>0.0007749725622687235</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0003142892217659</v>
+        <v>0.0003108151847562273</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001894534157749164</v>
+        <v>0.0001874234018078512</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001305291668173652</v>
+        <v>0.0001292387052736652</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1463596829526822</v>
+        <v>0.1463628024972012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1509918188354714</v>
+        <v>0.1509904035777456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158130182779446</v>
+        <v>0.1581215261684336</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1488848795430943</v>
+        <v>0.1488831850363891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.144725025700374</v>
+        <v>0.1447207888932097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1050198852430262</v>
+        <v>0.1050411731164975</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1308850436245111</v>
+        <v>0.1308734908630136</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1118733979763047</v>
+        <v>0.1117717107559322</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0730114438904076</v>
+        <v>0.07295957336850864</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04197147271151559</v>
+        <v>0.04135525160202261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03823144140545526</v>
+        <v>0.03760713894700304</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03009093281111095</v>
+        <v>0.02951215830285011</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01597977047156776</v>
+        <v>0.01564106949829477</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00564751801699413</v>
+        <v>0.005554101009370893</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002024286124045954</v>
+        <v>0.001963301342354394</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001277440303208471</v>
+        <v>0.001238829704617596</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001049879035768229</v>
+        <v>0.001022237417713673</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00225121416718719</v>
+        <v>0.002204055194789792</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00141936290945601</v>
+        <v>0.001389190876397595</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003468134011989333</v>
+        <v>0.0003384085142693501</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001746899321237665</v>
+        <v>0.0001703852560371929</v>
       </c>
       <c r="W3" t="n">
-        <v>5.472747992423777e-05</v>
+        <v>5.326849779779903e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>2.845262848665331e-06</v>
+        <v>2.780005686286905e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.689727008354902e-06</v>
+        <v>1.651122355277908e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.758079172195824e-07</v>
+        <v>4.686265241968294e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.312758235421672e-07</v>
+        <v>1.296186034600155e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.411368206544351e-08</v>
+        <v>6.332901409364305e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.849022527746578e-08</v>
+        <v>3.805771626646016e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1463596881332175</v>
+        <v>0.1463628076834925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1509918315314953</v>
+        <v>0.1509904162724869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1581302081119698</v>
+        <v>0.158121551487021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1488848895733324</v>
+        <v>0.1488831950646487</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1447250291954435</v>
+        <v>0.1447207923837786</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1050203152193149</v>
+        <v>0.1050416028947869</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1308851446888335</v>
+        <v>0.130873592027983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1118738302781323</v>
+        <v>0.1117721432016134</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07301201509823213</v>
+        <v>0.07296014423589932</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0419723496146723</v>
+        <v>0.04135612149640464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03927490724651222</v>
+        <v>0.03871637902122351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0401010822323777</v>
+        <v>0.03958946347886799</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04840153587814764</v>
+        <v>0.04776489961695838</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05249855943647648</v>
+        <v>0.05172983636510677</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05228294390950615</v>
+        <v>0.05158251660695381</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05496685032466445</v>
+        <v>0.05420044515913389</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05038785064859988</v>
+        <v>0.04970693188753531</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03750313636209901</v>
+        <v>0.03703737788097091</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04283857470060448</v>
+        <v>0.04228133670612643</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05967742792946532</v>
+        <v>0.05889049162354977</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0743021833625062</v>
+        <v>0.07323991727902529</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06075204155590259</v>
+        <v>0.05990856085428519</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1571196835408457</v>
+        <v>0.1546314031990454</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1670047789399882</v>
+        <v>0.1643812933665243</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2267934514768498</v>
+        <v>0.2232595387251879</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2386907850436816</v>
+        <v>0.2350041250807101</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2452260300377219</v>
+        <v>0.241465547333277</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2504098765078768</v>
+        <v>0.2465814376183104</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1463616383109898</v>
+        <v>0.1463647600280938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1509966109369057</v>
+        <v>0.1509951951950513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1581397446784724</v>
+        <v>0.158131082807045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1488886655135719</v>
+        <v>0.1488869702602031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1447263449720335</v>
+        <v>0.1447221064663029</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1050137965423326</v>
+        <v>0.1050350866246444</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1308846230721633</v>
+        <v>0.1308730669749862</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1118673361785499</v>
+        <v>0.111765644282874</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07300272299746979</v>
+        <v>0.07295085672109861</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04195741866039576</v>
+        <v>0.04134130674158688</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0458697331020559</v>
+        <v>0.04520562127096179</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05197357110868791</v>
+        <v>0.05118616702689009</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05011020616565191</v>
+        <v>0.04927353500530041</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05628980770555828</v>
+        <v>0.05539530069526884</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0636492404491513</v>
+        <v>0.06258077234785213</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05675066390211715</v>
+        <v>0.05577467123792611</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07328694345536553</v>
+        <v>0.07209832259644461</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09586242152489351</v>
+        <v>0.09438442724733413</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08705329259533573</v>
+        <v>0.08567159154792175</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06306443156108109</v>
+        <v>0.06171458122948323</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05258900455156704</v>
+        <v>0.05142402427776967</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05466802793825961</v>
+        <v>0.05334421732207287</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001052855145816339</v>
+        <v>0.001015069286986759</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00082369662520098</v>
+        <v>0.0007942388010070549</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0003623425311839805</v>
+        <v>0.0003514221050828301</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001596923970585071</v>
+        <v>0.0001551509320813052</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001016366908689261</v>
+        <v>9.877854772806041e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.268894021216037e-05</v>
+        <v>7.070015810348556e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1375308171354731</v>
+        <v>0.1375264554523151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1307117216736178</v>
+        <v>0.1307141255964663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1205428896363789</v>
+        <v>0.1205556140261946</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1340608833937106</v>
+        <v>0.1340635814412367</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1402592979072379</v>
+        <v>0.1402663434814275</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1772549129283992</v>
+        <v>0.1772378000461264</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1534419335071621</v>
+        <v>0.153455639469816</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1680589675940469</v>
+        <v>0.1681719994772671</v>
       </c>
       <c r="J6" t="n">
-        <v>0.209236887199386</v>
+        <v>0.2093149789838723</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2296989762283021</v>
+        <v>0.2304038668288628</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2108789457772605</v>
+        <v>0.2116301874351113</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2088384356531016</v>
+        <v>0.2099501070749243</v>
       </c>
       <c r="N6" t="n">
-        <v>0.256574370239999</v>
+        <v>0.25788655779347</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2721838199077402</v>
+        <v>0.2731084381229832</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2645560353761866</v>
+        <v>0.265834594863177</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2918590381900303</v>
+        <v>0.2930965582543909</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2413934757932964</v>
+        <v>0.242514590354685</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1570849389997452</v>
+        <v>0.1580331579115794</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1937951479811077</v>
+        <v>0.1948380736878923</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2747019773201464</v>
+        <v>0.2767281861078453</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2931052591773924</v>
+        <v>0.2949791216381364</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3485904874952136</v>
+        <v>0.3507411878029559</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2450675389813134</v>
+        <v>0.245472614798298</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2283042545706019</v>
+        <v>0.2287134095412996</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1598423429947018</v>
+        <v>0.1605679470395874</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.161166879861863</v>
+        <v>0.1619327034887033</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1617968262987914</v>
+        <v>0.1625862582309928</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1622495176913593</v>
+        <v>0.1630569113717332</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1438181735849969</v>
+        <v>0.1438186775176228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1448828430763112</v>
+        <v>0.1448822162934559</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1462060956298645</v>
+        <v>0.1462041059086009</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1441687776328821</v>
+        <v>0.1441681815330892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1431446819672947</v>
+        <v>0.1431429688058899</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1667410223187975</v>
+        <v>0.1667242262936225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1511178929627276</v>
+        <v>0.1511205820064653</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1651889144199632</v>
+        <v>0.1652313936976825</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1838631045786926</v>
+        <v>0.1838653831672474</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2098884067359645</v>
+        <v>0.210137814285433</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2313681895120534</v>
+        <v>0.2314547719944931</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2062689731998057</v>
+        <v>0.2057917417793194</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1261043473369382</v>
+        <v>0.1255552268444931</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06302074800198271</v>
+        <v>0.06301031433477608</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03811686963092252</v>
+        <v>0.03774039862752709</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02543064074961893</v>
+        <v>0.02517558954104319</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02730581820859066</v>
+        <v>0.02713225599658615</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06489083395318231</v>
+        <v>0.06479589801991939</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04304988991908704</v>
+        <v>0.04297264245737034</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0117404146289135</v>
+        <v>0.01167710156137145</v>
       </c>
       <c r="V7" t="n">
-        <v>0.006229139360015288</v>
+        <v>0.006192768940149266</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002172217971862797</v>
+        <v>0.00215480483964479</v>
       </c>
       <c r="X7" t="n">
-        <v>9.127951252599767e-05</v>
+        <v>9.084821983248778e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.556913920111266e-05</v>
+        <v>5.531183692076025e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.618535968903819e-05</v>
+        <v>1.623639630095351e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.605608009464766e-06</v>
+        <v>4.631507938571071e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.288797698916242e-06</v>
+        <v>2.302559261982713e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.389193902682331e-06</v>
+        <v>1.398946202871382e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1377486946036384</v>
+        <v>0.1377444670642366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1311821073121679</v>
+        <v>0.1311843862766779</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1213509098177847</v>
+        <v>0.1213631717188784</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1343785340086594</v>
+        <v>0.1343811155637735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1403383874044122</v>
+        <v>0.1403450731718598</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1768924625172661</v>
+        <v>0.1768752611500995</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1533503371902432</v>
+        <v>0.1533635982362881</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1680013641280436</v>
+        <v>0.1681118694498328</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2083902857317321</v>
+        <v>0.208465285086892</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2291636774776241</v>
+        <v>0.2298538269611504</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2106762835284882</v>
+        <v>0.2114143882055495</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2091254634912492</v>
+        <v>0.2102222326031353</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2566194163248653</v>
+        <v>0.2579080051349164</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2726886017670068</v>
+        <v>0.2735934328047444</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2655208054139826</v>
+        <v>0.2667799815430701</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2908805631849825</v>
+        <v>0.2920891143197227</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2441709811218073</v>
+        <v>0.2452847357449039</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1618876572559478</v>
+        <v>0.1628446169727355</v>
       </c>
       <c r="T8" t="n">
-        <v>0.197432965258829</v>
+        <v>0.1984724817906285</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2811102766373744</v>
+        <v>0.2830679068492397</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3318618566043707</v>
+        <v>0.3338147576945676</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3172285279433225</v>
+        <v>0.3191788006345048</v>
       </c>
       <c r="X8" t="n">
-        <v>0.594094294627498</v>
+        <v>0.5962652891855009</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6018784363758052</v>
+        <v>0.6041594688429149</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6122000621825398</v>
+        <v>0.615029414545048</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5996636165917981</v>
+        <v>0.6025924441872071</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5926837006454618</v>
+        <v>0.5956596265979183</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5871359600096063</v>
+        <v>0.59016027514266</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1418452877051791</v>
+        <v>0.1418230467730384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1402765435192642</v>
+        <v>0.1402055464226248</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1366420521597137</v>
+        <v>0.1364034653206651</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1387515694395399</v>
+        <v>0.1385948404844742</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1442413179935912</v>
+        <v>0.1441869239982649</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1736481304593106</v>
+        <v>0.1742408556822301</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1810325088457346</v>
+        <v>0.1816252194293903</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1651433998363636</v>
+        <v>0.1659439022968736</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1745873744852809</v>
+        <v>0.1754685706980576</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1588932434365547</v>
+        <v>0.1596537783237591</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1683971258613122</v>
+        <v>0.1693039183867507</v>
       </c>
       <c r="M2" t="n">
-        <v>0.182284358714364</v>
+        <v>0.1832980095144572</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1872423487435941</v>
+        <v>0.1885469576470802</v>
       </c>
       <c r="O2" t="n">
-        <v>0.180605965741668</v>
+        <v>0.1821121444361709</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1784706093711375</v>
+        <v>0.1796148748325022</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2174911185776161</v>
+        <v>0.2198137792928539</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2239162412257238</v>
+        <v>0.2257121753962575</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1953545245850844</v>
+        <v>0.1962435388894658</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2610296444852231</v>
+        <v>0.2635197379704048</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1972682994781457</v>
+        <v>0.1992268730785941</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1548967381139566</v>
+        <v>0.1566546727491962</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09467620355324929</v>
+        <v>0.09462998425079171</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1475406324932454</v>
+        <v>0.1477816158906209</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3295343507447234</v>
+        <v>0.3354279438999304</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3032443029899665</v>
+        <v>0.3124037204968854</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1115077354944165</v>
+        <v>0.115049436602124</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1440657839420019</v>
+        <v>0.1493216235667575</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2136856066001896</v>
+        <v>0.2202932994894741</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1461543035564479</v>
+        <v>0.146226085553475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1507964763623674</v>
+        <v>0.1510007778643907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1614017171275376</v>
+        <v>0.1619634317495469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1559199527370057</v>
+        <v>0.1563189917163225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1392789344276189</v>
+        <v>0.1394793176624178</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08545810213144157</v>
+        <v>0.08440648676094158</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06619534387154212</v>
+        <v>0.06487495073041759</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1084293592636562</v>
+        <v>0.1072286396489661</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08849774648234389</v>
+        <v>0.08696544752687896</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1189180858581659</v>
+        <v>0.1178427989045702</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07248679069750968</v>
+        <v>0.07155057707938534</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05746055430574617</v>
+        <v>0.05670920966889227</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08185566010491692</v>
+        <v>0.08069657277195487</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04188305208745044</v>
+        <v>0.04094633558692122</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01742353853448564</v>
+        <v>0.01683168980905156</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02505997320330627</v>
+        <v>0.02477539151625338</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008293957931682552</v>
+        <v>0.008069998196903981</v>
       </c>
       <c r="S3" t="n">
-        <v>0.005070712058288915</v>
+        <v>0.004871597694815562</v>
       </c>
       <c r="T3" t="n">
-        <v>0.006331571349947656</v>
+        <v>0.006163789251254968</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00209295539484133</v>
+        <v>0.001997842551087078</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0008777144808282079</v>
+        <v>0.0008288542777722911</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0002979993216898872</v>
+        <v>0.0002734215453516543</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0002152312254422696</v>
+        <v>0.0001941017067204392</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0004106217360171541</v>
+        <v>0.0003829298603680445</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0001678019259946696</v>
+        <v>0.0001561196751862166</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.02321346828337e-05</v>
+        <v>2.747681564401377e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.305705221574083e-05</v>
+        <v>1.155915669241917e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.374630780706236e-06</v>
+        <v>4.550172816435596e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1461543085569128</v>
+        <v>0.1462260906633717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1507964888588199</v>
+        <v>0.1510007906969032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1614017468003932</v>
+        <v>0.1619634624857806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1559199727804401</v>
+        <v>0.1563190124705458</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1392789283138046</v>
+        <v>0.1394793118243527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0854586471182395</v>
+        <v>0.08440704164155312</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06619593884220515</v>
+        <v>0.06487555103139497</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1084299838850218</v>
+        <v>0.1072292787759832</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08849844976899927</v>
+        <v>0.08696616093110601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1189185992610968</v>
+        <v>0.1178433299260061</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383045201137253</v>
+        <v>0.1370702332933879</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1402492904386014</v>
+        <v>0.1389438107166474</v>
       </c>
       <c r="N4" t="n">
-        <v>0.123757884913642</v>
+        <v>0.1225609160676796</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1506768926134198</v>
+        <v>0.1492620780546562</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1684449194138056</v>
+        <v>0.166988782201545</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1515495991510258</v>
+        <v>0.149678101354684</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1647328766424563</v>
+        <v>0.1631556448704484</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1754367866617688</v>
+        <v>0.1739837459901204</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1555501546199158</v>
+        <v>0.1539516453739376</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1842994944615775</v>
+        <v>0.1827298130052316</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2105859026689197</v>
+        <v>0.2084667519251353</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2697272076659556</v>
+        <v>0.2685143235345192</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2148447390178477</v>
+        <v>0.2133475710319959</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1030028476972579</v>
+        <v>0.09957832869435224</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07577170918966894</v>
+        <v>0.07112529335571829</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1287734186364811</v>
+        <v>0.1233200216345494</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.100788939497838</v>
+        <v>0.09526114668382933</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.04887272205405338</v>
+        <v>0.04403508381108295</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1461561909627656</v>
+        <v>0.1462280142643651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1508011931483648</v>
+        <v>0.151005621497567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1614129171800786</v>
+        <v>0.1619750331923641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1559275180685858</v>
+        <v>0.1563268253429103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1392766267478279</v>
+        <v>0.1394771140595193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08544764103329577</v>
+        <v>0.08439594859160029</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06618439218795152</v>
+        <v>0.06486398616105815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1084171875374175</v>
+        <v>0.1072163357583883</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08848462309962619</v>
+        <v>0.08695225377542928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1189075659355112</v>
+        <v>0.1178321018543606</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1255213526319367</v>
+        <v>0.1244610255153394</v>
       </c>
       <c r="M5" t="n">
-        <v>0.135886042456015</v>
+        <v>0.1347639411347454</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1401646881608374</v>
+        <v>0.1392062897096989</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1342226095905063</v>
+        <v>0.1334835136860627</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1318050132750206</v>
+        <v>0.1308198415785693</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1596747700259902</v>
+        <v>0.1591262722344683</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1649767607222027</v>
+        <v>0.1640018981907712</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1445172459377965</v>
+        <v>0.1431831862432326</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1918376261631794</v>
+        <v>0.1909901123336916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1464878374259588</v>
+        <v>0.1459161965531923</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1244076943071401</v>
+        <v>0.124185165808238</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08385150416240132</v>
+        <v>0.08294969752474161</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1227994320990582</v>
+        <v>0.1218926657135011</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2283469661541362</v>
+        <v>0.2293999371368901</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2396913956954053</v>
+        <v>0.2436220508652466</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1097161080890366</v>
+        <v>0.1125142552477685</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1958788249796201</v>
+        <v>0.2028323118758434</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4407297943010596</v>
+        <v>0.4555962350585562</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.137883238341832</v>
+        <v>0.1377751744213745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1310357480303884</v>
+        <v>0.1307364995454716</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1154402238974734</v>
+        <v>0.1146643896903303</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1232511115401646</v>
+        <v>0.1226859337226443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1479601373532844</v>
+        <v>0.1476498317384528</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1988815114510448</v>
+        <v>0.1997748551875694</v>
       </c>
       <c r="H6" t="n">
-        <v>0.220121507847127</v>
+        <v>0.2214053640234471</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1733154532578984</v>
+        <v>0.1742338109904668</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1935459232339627</v>
+        <v>0.1948675353711203</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1638909830555708</v>
+        <v>0.1646674160509888</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1914102171815711</v>
+        <v>0.1923280604874803</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1912961763893118</v>
+        <v>0.1921247320208252</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1659013338821095</v>
+        <v>0.1665153601302182</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2062880926534699</v>
+        <v>0.2070402546004423</v>
       </c>
       <c r="P6" t="n">
-        <v>0.230784546593461</v>
+        <v>0.231871146905949</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1898919923192335</v>
+        <v>0.189638064340571</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2031045006727216</v>
+        <v>0.2035834618148235</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2297932123887775</v>
+        <v>0.2309442553392646</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1774704097605944</v>
+        <v>0.1774866623459012</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2282519036984151</v>
+        <v>0.2283773290276538</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2437187478234993</v>
+        <v>0.2442020518149839</v>
       </c>
       <c r="W6" t="n">
-        <v>0.24287114642448</v>
+        <v>0.2435557650344062</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2473719978991311</v>
+        <v>0.2485089895893763</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1885517506825648</v>
+        <v>0.1875997398814911</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2391727772384531</v>
+        <v>0.2361230592118914</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4090378511472953</v>
+        <v>0.4123080490265136</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.34501018446318</v>
+        <v>0.343990216456395</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1794916615491441</v>
+        <v>0.1709258135912926</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1437244451368316</v>
+        <v>0.1437431337352882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1448034229069933</v>
+        <v>0.1448489820517064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1472350295607386</v>
+        <v>0.1473171070844292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1462093062114134</v>
+        <v>0.1462808619566705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1421638196695612</v>
+        <v>0.142224467823671</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1730493311585792</v>
+        <v>0.173827299672559</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1814464861990402</v>
+        <v>0.1822628719112804</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1632203405053045</v>
+        <v>0.1641814914532909</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1734561768845971</v>
+        <v>0.1745344769145094</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1567609323056284</v>
+        <v>0.15766695589722</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1127296830761063</v>
+        <v>0.1132097416742088</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1015793567027995</v>
+        <v>0.1020771443048507</v>
       </c>
       <c r="N7" t="n">
-        <v>0.135015731896654</v>
+        <v>0.1357845617425562</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08013610744109791</v>
+        <v>0.08019594762293925</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04239121159365071</v>
+        <v>0.04208926650137439</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0640583192135159</v>
+        <v>0.06487230313331319</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02871051389024163</v>
+        <v>0.02866304764601481</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01852471688622202</v>
+        <v>0.01828716696944086</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02549433190835818</v>
+        <v>0.02548436431412513</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009387749695704403</v>
+        <v>0.009232701407693493</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004259958293285585</v>
+        <v>0.004152642315585649</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001540592091493551</v>
+        <v>0.001461754969073464</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001367217598915282</v>
+        <v>0.001279138750744562</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00288470483867155</v>
+        <v>0.002791400700043262</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001276139326933436</v>
+        <v>0.001234482553172387</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0002420883671420894</v>
+        <v>0.0002291453628599003</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0001123726556535146</v>
+        <v>0.000103833196227041</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.968353367425081e-05</v>
+        <v>4.401522350761944e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.138082225740031</v>
+        <v>0.1379784545890872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1314901271738019</v>
+        <v>0.1312017819213361</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1164663132740649</v>
+        <v>0.1157131104768838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1240205692228503</v>
+        <v>0.1234735343064326</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1478002354943117</v>
+        <v>0.1475030328933215</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1980566366480886</v>
+        <v>0.1989475124635465</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2188238222063995</v>
+        <v>0.2200920567130116</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1730442757143381</v>
+        <v>0.1739665410760312</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1929297060451899</v>
+        <v>0.1942455547828985</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1637105901474722</v>
+        <v>0.1644936190430951</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1911503104378388</v>
+        <v>0.1920764435634475</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1912442209931621</v>
+        <v>0.1920831526395818</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1660623522982461</v>
+        <v>0.166689341930812</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2061872798723877</v>
+        <v>0.2069597260128074</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2306801612184389</v>
+        <v>0.2317843981710085</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1922742275093122</v>
+        <v>0.1920960881278563</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2062651489149715</v>
+        <v>0.2068137738847804</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2313028014820619</v>
+        <v>0.23248650887366</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1822862617127813</v>
+        <v>0.1824036884106846</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2322117598453572</v>
+        <v>0.2325192443765476</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2612532443123705</v>
+        <v>0.2615098611090885</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3070353467807302</v>
+        <v>0.3086150531411162</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2658607496663598</v>
+        <v>0.2669959173170408</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.147268758146629</v>
+        <v>0.1448197198269251</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.140675873633578</v>
+        <v>0.1353352738418997</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2406925661309456</v>
+        <v>0.2365516153105408</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2141308374094907</v>
+        <v>0.2084793090642552</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1171651573310983</v>
+        <v>0.10910100265327</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1414904113220218</v>
+        <v>0.1414869274856343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1437463720353842</v>
+        <v>0.1437433350286861</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1435122714862418</v>
+        <v>0.1435060702111816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1447152592848693</v>
+        <v>0.1447097945426041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1475478386316359</v>
+        <v>0.1475440048417584</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1199718952728411</v>
+        <v>0.1199648824101912</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1394645091372275</v>
+        <v>0.1394684809416152</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1502845198701815</v>
+        <v>0.1502925689932816</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1667276796405518</v>
+        <v>0.1667353612313508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1989432091927777</v>
+        <v>0.1989308562039671</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1921604420899287</v>
+        <v>0.1921682412081319</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2053517067068828</v>
+        <v>0.2054477332193307</v>
       </c>
       <c r="N2" t="n">
-        <v>0.209001717664875</v>
+        <v>0.2090084111167908</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1818117101135475</v>
+        <v>0.1817485330290625</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1784426083641217</v>
+        <v>0.178155244061491</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1235549930883871</v>
+        <v>0.1232651104230078</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06682959129137477</v>
+        <v>0.06661195708646415</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03621150026936509</v>
+        <v>0.03607892067199423</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03512492534072918</v>
+        <v>0.034956648176871</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0472287565028941</v>
+        <v>0.04701219931218745</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02464169800567368</v>
+        <v>0.02449147412625256</v>
       </c>
       <c r="W2" t="n">
-        <v>0.006223832773493395</v>
+        <v>0.006150852856892107</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005963672455471363</v>
+        <v>0.005893183850152746</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00383000839989214</v>
+        <v>0.003785298760574373</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.002193030316092551</v>
+        <v>0.002166026154418958</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001557566251842231</v>
+        <v>0.001538576963282504</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0007790447843913548</v>
+        <v>0.0007696499226306743</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0005742154148020586</v>
+        <v>0.000567308595932833</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1473188103110524</v>
+        <v>0.1473280282942045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1393321000468923</v>
+        <v>0.1393430214193905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1437496901514071</v>
+        <v>0.1437686273497045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1391883247813076</v>
+        <v>0.1392068372601898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1273346685328413</v>
+        <v>0.1273501536837699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1726183039671052</v>
+        <v>0.1726373000682574</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1519743042399134</v>
+        <v>0.1519712873249114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1333662815371918</v>
+        <v>0.1333563622282644</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1011977143145068</v>
+        <v>0.1011894608679479</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0572484601623539</v>
+        <v>0.05712313097164163</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08817999076104506</v>
+        <v>0.08799702230386557</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09020094716124499</v>
+        <v>0.08993105258206079</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0467198962174394</v>
+        <v>0.04656239590367563</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02558891953218287</v>
+        <v>0.02548313613930804</v>
       </c>
       <c r="P3" t="n">
-        <v>0.007968234757746879</v>
+        <v>0.00792181211061156</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003338545827137065</v>
+        <v>0.003314491586127673</v>
       </c>
       <c r="R3" t="n">
-        <v>2.179831725585066e-05</v>
+        <v>2.160152859321056e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>5.479643479351949e-06</v>
+        <v>5.428404313096914e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.681905713894072e-06</v>
+        <v>1.664356585457237e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>3.338744939827967e-06</v>
+        <v>3.306606063498762e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>7.213541426761523e-07</v>
+        <v>7.135044808068584e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>9.362813888440773e-08</v>
+        <v>9.235107050850571e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>7.484712178997576e-08</v>
+        <v>7.381881633219652e-08</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.41619454418002e-08</v>
+        <v>3.370114982589651e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.37551968003006e-08</v>
+        <v>1.35574687632612e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.65142293573289e-09</v>
+        <v>7.542673542290719e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.949136092549882e-09</v>
+        <v>2.907694920014925e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.926873392549518e-09</v>
+        <v>1.89987124817617e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1473188170566017</v>
+        <v>0.1473280350558802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1393320952749427</v>
+        <v>0.139343016663301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1437496886684294</v>
+        <v>0.1437686258959929</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1391883170876317</v>
+        <v>0.1392068295933695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1273346458235903</v>
+        <v>0.1273501309945962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1726173001347512</v>
+        <v>0.1726362964994412</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1519741314750471</v>
+        <v>0.1519711150241856</v>
       </c>
       <c r="I4" t="n">
-        <v>0.133366361909952</v>
+        <v>0.1333564430899914</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1011980846836305</v>
+        <v>0.1011898316008799</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05724907694669101</v>
+        <v>0.05712374650097855</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04782030635315299</v>
+        <v>0.04771992165811341</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03865857275119597</v>
+        <v>0.03859948395770647</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05687284715408808</v>
+        <v>0.0567665360055478</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06923921219850798</v>
+        <v>0.06910035522302718</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08101545505173968</v>
+        <v>0.08086037476172626</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0820606999984393</v>
+        <v>0.08187638341469275</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08824724110261994</v>
+        <v>0.08801267590179331</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08231608565614919</v>
+        <v>0.08207391737763377</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09296233684585964</v>
+        <v>0.09268084658386379</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09707722176412774</v>
+        <v>0.09679439658673493</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09833916848651952</v>
+        <v>0.09811522198984345</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09381230888543207</v>
+        <v>0.09364214798828439</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09183315138186075</v>
+        <v>0.09167280682914258</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1072351471469004</v>
+        <v>0.1070325673738845</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.130979337707653</v>
+        <v>0.1307589044719152</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1319721509674731</v>
+        <v>0.1317480822533833</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1378605761860351</v>
+        <v>0.1376254514870737</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.140207717423104</v>
+        <v>0.1399687962403039</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1473213563885518</v>
+        <v>0.1473305804587452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1393302989477976</v>
+        <v>0.1393412263065539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1437491301300885</v>
+        <v>0.143768078374615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.139185420640573</v>
+        <v>0.1392039432557307</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12732609717182</v>
+        <v>0.1273415899003714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1726227250187945</v>
+        <v>0.1726417276357541</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1519664754293341</v>
+        <v>0.1519634618098735</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1333555873730839</v>
+        <v>0.1333456701205069</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1011845001555971</v>
+        <v>0.101176248439304</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05723427272772485</v>
+        <v>0.05710897706151904</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05552315316550609</v>
+        <v>0.05540731084931137</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05977719404253794</v>
+        <v>0.05967754340677894</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06025258262378352</v>
+        <v>0.0601259115252465</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0520271339105333</v>
+        <v>0.05189771815722025</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05035442143057064</v>
+        <v>0.05016390999529981</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03510002499743319</v>
+        <v>0.03494177241768746</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0195396125534421</v>
+        <v>0.01943403574891462</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01070152731898646</v>
+        <v>0.01063938389910428</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01053056156396536</v>
+        <v>0.01045770253010419</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01408388797296849</v>
+        <v>0.0139892953603162</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008593802474953421</v>
+        <v>0.008523453331980953</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003664707545544877</v>
+        <v>0.003617831654795461</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00358145775886017</v>
+        <v>0.003535327918074899</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002449497108065548</v>
+        <v>0.002418246079059162</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001505024761536488</v>
+        <v>0.001484951773731056</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001129539702773342</v>
+        <v>0.001114598301515592</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0006055362731669551</v>
+        <v>0.0005976006970107768</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0004608944692283462</v>
+        <v>0.0004548677632900868</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.136123034598327</v>
+        <v>0.1361098398549745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.148380325401031</v>
+        <v>0.1483635289928854</v>
       </c>
       <c r="D6" t="n">
-        <v>0.140514655414681</v>
+        <v>0.1404864651337317</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1476133413686167</v>
+        <v>0.1475851472207082</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1663900910572273</v>
+        <v>0.1663657081803324</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1253784060584192</v>
+        <v>0.1253528734986525</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1375909206640503</v>
+        <v>0.1375869601055424</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1548866379585903</v>
+        <v>0.1548886222951976</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1868960760145996</v>
+        <v>0.1868952800424276</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2211755368975201</v>
+        <v>0.2213633633130032</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1819526692058978</v>
+        <v>0.1821233521381763</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1425630259997563</v>
+        <v>0.1427794359694597</v>
       </c>
       <c r="N6" t="n">
-        <v>0.218509206251519</v>
+        <v>0.2187714503596005</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2793883250199291</v>
+        <v>0.2796919230705106</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3206663753702169</v>
+        <v>0.3210831075511221</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3732257821462695</v>
+        <v>0.3736106586281772</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4187549771076684</v>
+        <v>0.4190495965871346</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4454425962848925</v>
+        <v>0.445682445801971</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4356119016384064</v>
+        <v>0.4358973885912616</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4234198874689715</v>
+        <v>0.4237390127828823</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4279767691449113</v>
+        <v>0.4280451646319386</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4519872233343973</v>
+        <v>0.4518060344449985</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4566243376039811</v>
+        <v>0.4564239012228421</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4165908244005512</v>
+        <v>0.4164044685247189</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3628977681140061</v>
+        <v>0.3626535622860955</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3637455094734048</v>
+        <v>0.3634966999466736</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3667820363664678</v>
+        <v>0.3665316909396423</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3679016895014554</v>
+        <v>0.3676517654094312</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144035176879514</v>
+        <v>0.1440369443483149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1417450409161118</v>
+        <v>0.141748177722237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1439965420533042</v>
+        <v>0.1440012430794654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1425889201885767</v>
+        <v>0.1425940858793384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1386030103783217</v>
+        <v>0.1386080766423828</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1118443613572199</v>
+        <v>0.1118445589838596</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1295818011843723</v>
+        <v>0.1295942989035107</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1402155883627288</v>
+        <v>0.1402328498979395</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1568010628977705</v>
+        <v>0.1568190821798033</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1877019200691505</v>
+        <v>0.187720460540971</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2528128624227604</v>
+        <v>0.2528675892697486</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3208829190306014</v>
+        <v>0.3207861664578014</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1907629076996871</v>
+        <v>0.1906286566819868</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1143610771078729</v>
+        <v>0.1142007616766532</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04245302203658619</v>
+        <v>0.04231246505095847</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0190670319069746</v>
+        <v>0.01897901298157866</v>
       </c>
       <c r="R7" t="n">
-        <v>0.000146516868525114</v>
+        <v>0.0001455962247507439</v>
       </c>
       <c r="S7" t="n">
-        <v>4.058750634239754e-05</v>
+        <v>4.031870040964639e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.40762975669884e-05</v>
+        <v>1.396681943274534e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>2.718922949666972e-05</v>
+        <v>2.699501948285913e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>6.416142890802036e-06</v>
+        <v>6.361980281006002e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>8.119893378775351e-07</v>
+        <v>8.025439416298621e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>6.646497541651741e-07</v>
+        <v>6.56852094176115e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.140255816757323e-07</v>
+        <v>3.104173946166276e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.307432174879718e-07</v>
+        <v>1.29127481759717e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.433915394934509e-08</v>
+        <v>7.343230518047882e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.926388299120299e-08</v>
+        <v>2.891155896710942e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.930638170782097e-08</v>
+        <v>1.907467620786032e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1363923934439313</v>
+        <v>0.1363796445022465</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1481337673778406</v>
+        <v>0.1481176938669461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1407280220958478</v>
+        <v>0.1407008899553089</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1475204166484251</v>
+        <v>0.1474933622480593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1654636484045636</v>
+        <v>0.1654403357567888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.124947008190869</v>
+        <v>0.124922360903844</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1374478578700553</v>
+        <v>0.1374443958903611</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1545250229882718</v>
+        <v>0.1545274833748187</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1859948822933437</v>
+        <v>0.1859947356382864</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2204475240037819</v>
+        <v>0.2206294654079194</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1815505760017089</v>
+        <v>0.1817165625726528</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1425656343077805</v>
+        <v>0.1427785844068619</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2178808423886079</v>
+        <v>0.2181366384071522</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2775836221174264</v>
+        <v>0.2778775727042183</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3190998829890181</v>
+        <v>0.3195030864687908</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3636529220353592</v>
+        <v>0.3640125705487285</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4064602627591138</v>
+        <v>0.4067245369223494</v>
       </c>
       <c r="S8" t="n">
-        <v>0.425282223320785</v>
+        <v>0.425479585144574</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4257545164077585</v>
+        <v>0.4259917829418812</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4181597183166018</v>
+        <v>0.4184347943323326</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4404414243909086</v>
+        <v>0.4408176104352226</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4443110218436555</v>
+        <v>0.4447822381600174</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4419966413029507</v>
+        <v>0.442474049508877</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4698941747570636</v>
+        <v>0.4703590751432186</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5024246946022974</v>
+        <v>0.5029364126288888</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5015951516139298</v>
+        <v>0.5021019615601663</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4939727741769198</v>
+        <v>0.4944755751343888</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.490855461958155</v>
+        <v>0.4913572410164945</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1448914939761048</v>
+        <v>0.1449933494949606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1457371361274274</v>
+        <v>0.1458982269911587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1470980842676189</v>
+        <v>0.1472874613974711</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1458466923079736</v>
+        <v>0.146014500008804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.146757067365122</v>
+        <v>0.1468705709806468</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1254842738672663</v>
+        <v>0.1249090743669508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1237007455725357</v>
+        <v>0.1236177877055046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1920231092571257</v>
+        <v>0.1927539935412674</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1820512783871691</v>
+        <v>0.1845056359817949</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1651363255213148</v>
+        <v>0.1694447180468115</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1593921523680268</v>
+        <v>0.1615072598440541</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1768230375398781</v>
+        <v>0.1800638472586535</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1874123392222979</v>
+        <v>0.1914391231515908</v>
       </c>
       <c r="O2" t="n">
-        <v>0.204185157798714</v>
+        <v>0.2094157835670617</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2336217208620506</v>
+        <v>0.2421292681410075</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.258967352688649</v>
+        <v>0.2658961580283627</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2599821075919344</v>
+        <v>0.2685944016740013</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2803024557635378</v>
+        <v>0.2860636544177574</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3090573344429069</v>
+        <v>0.3189974442094541</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2678626904323116</v>
+        <v>0.2772454923189938</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2184117260793552</v>
+        <v>0.2236357215436177</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2399565307875796</v>
+        <v>0.2473386899964294</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1525841898561739</v>
+        <v>0.1601025608960151</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07090474674898148</v>
+        <v>0.07592005131769604</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02818502899617051</v>
+        <v>0.03104295244971261</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01099044527383084</v>
+        <v>0.01235440762739465</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1164735923465037</v>
+        <v>0.1409384233075976</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03503081641118328</v>
+        <v>0.04346865942513833</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1368075127396257</v>
+        <v>0.1365376017461628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1349919340090748</v>
+        <v>0.1345910421641634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1295506276306368</v>
+        <v>0.1288893422327741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.136023969952334</v>
+        <v>0.1355403253130874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1316190415290638</v>
+        <v>0.1313422076747727</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1684191750515318</v>
+        <v>0.1691571439775192</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1768843684748247</v>
+        <v>0.1772416680538744</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04724330350694154</v>
+        <v>0.04292176623038266</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07704646573423957</v>
+        <v>0.07049760541144526</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1123033101019686</v>
+        <v>0.1037223127784176</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04909697699673808</v>
+        <v>0.04496899375829218</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0391895496719762</v>
+        <v>0.03528026034544439</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09958615292484105</v>
+        <v>0.09161420063099915</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1080165223178773</v>
+        <v>0.1000039112754683</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1010513494766047</v>
+        <v>0.09210310486301741</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04156639957969455</v>
+        <v>0.03688673795129687</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08472999714233892</v>
+        <v>0.07612084979674405</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04504668681207276</v>
+        <v>0.03972862180373846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0871226797393532</v>
+        <v>0.07982949128678823</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1313966262231862</v>
+        <v>0.1207649041085777</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1716600262615839</v>
+        <v>0.1591198651630905</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1579268953451442</v>
+        <v>0.1448779300250072</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2120976679849254</v>
+        <v>0.1931106903241024</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2714911277488001</v>
+        <v>0.2481065454474991</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3192603135017489</v>
+        <v>0.293192243699012</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3502253358623333</v>
+        <v>0.3231767980455885</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2432845956486992</v>
+        <v>0.2162398875133869</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2854709799237476</v>
+        <v>0.2606758956404695</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1368075031133308</v>
+        <v>0.1365375916630129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1349919208874555</v>
+        <v>0.1345910283446586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1295506073645531</v>
+        <v>0.1288893210378697</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1360239572090891</v>
+        <v>0.1355403118045971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1316190234944466</v>
+        <v>0.1313421891595422</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1684186607568349</v>
+        <v>0.1691566024300945</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1768841553355439</v>
+        <v>0.1772414619676312</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04724397232380131</v>
+        <v>0.04292239149820468</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07704718187263943</v>
+        <v>0.0704982856628236</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1123038988524757</v>
+        <v>0.103722889817328</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1456935247503259</v>
+        <v>0.1341064700487238</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1450651231559119</v>
+        <v>0.1337939530834124</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1077463222938006</v>
+        <v>0.1003473487360857</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09207562972560654</v>
+        <v>0.08543602158718731</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07876759893282871</v>
+        <v>0.07308500557819976</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1101386209136003</v>
+        <v>0.102799672752129</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08017580195059182</v>
+        <v>0.07577180099463594</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1029593222964261</v>
+        <v>0.09761082912360101</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05296917538842882</v>
+        <v>0.04997245623214798</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03325727123966193</v>
+        <v>0.0316858445314112</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01381315531524156</v>
+        <v>0.01313315864883017</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004316979919064757</v>
+        <v>0.004070909320427839</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001667583687873148</v>
+        <v>0.001631878672450979</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003644163228361924</v>
+        <v>0.0003740002712693803</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.305553446355806e-05</v>
+        <v>6.875354813560808e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.193672210987828e-06</v>
+        <v>1.058932688895327e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.913528693875899e-05</v>
+        <v>2.39589715218219e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.077457631433537e-06</v>
+        <v>1.468580804252948e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1368038792993807</v>
+        <v>0.1365337958645051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1349869812178558</v>
+        <v>0.1345858259534645</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1295429783199917</v>
+        <v>0.1288813423538356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1360191598756116</v>
+        <v>0.1355352263981329</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1316122343867792</v>
+        <v>0.131335219124267</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1684185614990448</v>
+        <v>0.1691566767425822</v>
       </c>
       <c r="H5" t="n">
-        <v>0.176878332537158</v>
+        <v>0.1772352208675354</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04722972993766201</v>
+        <v>0.04290907709815962</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07703050286471155</v>
+        <v>0.0704824781434835</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1122875432294382</v>
+        <v>0.10370704116172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1074351631836466</v>
+        <v>0.09796852136784118</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1192580772558876</v>
+        <v>0.1092823254543342</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1277063721108445</v>
+        <v>0.1173774034210792</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1398817028945822</v>
+        <v>0.1291208911975264</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1608519978960163</v>
+        <v>0.1500674427885825</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.179642253915052</v>
+        <v>0.1661051490573197</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1790437517124175</v>
+        <v>0.1665953577319234</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1941830564785429</v>
+        <v>0.1785334361155381</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2109302859945773</v>
+        <v>0.1960044403934301</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1815886456687266</v>
+        <v>0.1692268985591242</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1327361372556532</v>
+        <v>0.1223655782528444</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1239555566950508</v>
+        <v>0.1141760065054321</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07252183564758485</v>
+        <v>0.06821755665246286</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02974964800168852</v>
+        <v>0.02867427437483598</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01032986902858544</v>
+        <v>0.01029288561829977</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.003373789042188283</v>
+        <v>0.003450509794792718</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03329421975098621</v>
+        <v>0.03635175205300385</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.007390483146121769</v>
+        <v>0.008355957179066344</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1517984178536583</v>
+        <v>0.1521858608486459</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1542368183107229</v>
+        <v>0.1548024300656197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1627867518412877</v>
+        <v>0.1638009244535477</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1522302551440595</v>
+        <v>0.1529407952091639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1593510396335951</v>
+        <v>0.1597397145604315</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1252222605847098</v>
+        <v>0.1247504306380973</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1144919579435516</v>
+        <v>0.1141191810608887</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2407670589745806</v>
+        <v>0.246543333272</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2063333632269947</v>
+        <v>0.2137450202987796</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1704432381621713</v>
+        <v>0.1790838194271504</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2278816475302368</v>
+        <v>0.2389348507497453</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2217746693409118</v>
+        <v>0.2327258081536156</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1585601771876089</v>
+        <v>0.1682079859670734</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1311878119035441</v>
+        <v>0.1385751765784973</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1073368694763813</v>
+        <v>0.1132309998065362</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1527718388312266</v>
+        <v>0.1623491417330291</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1022120217386771</v>
+        <v>0.1102238577996163</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1305106268605125</v>
+        <v>0.141664671585539</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05413405825897988</v>
+        <v>0.05863478521642228</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0309639221011444</v>
+        <v>0.03395527644374298</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01561722341069449</v>
+        <v>0.01701579115169979</v>
       </c>
       <c r="W6" t="n">
-        <v>0.007229989407363828</v>
+        <v>0.00776545582560322</v>
       </c>
       <c r="X6" t="n">
-        <v>0.003222110160571909</v>
+        <v>0.003571651936492099</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0008753602946553539</v>
+        <v>0.001009229288881909</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001932759633822532</v>
+        <v>0.0002344802905057722</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.880053932488735e-05</v>
+        <v>3.688024973186242e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.291553688860394e-05</v>
+        <v>8.743699283043274e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.676581312992986e-06</v>
+        <v>5.555506984919286e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1414240680495247</v>
+        <v>0.1413699032308255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1412048660017619</v>
+        <v>0.1411323242871967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394467595836603</v>
+        <v>0.1392544154782168</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1418724199653389</v>
+        <v>0.1417597725044836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1402780404520611</v>
+        <v>0.1402288168478527</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1189697376508203</v>
+        <v>0.1182792101698693</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1165281519905655</v>
+        <v>0.1162766945115841</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1864673870345638</v>
+        <v>0.1873223474646503</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1750524653324572</v>
+        <v>0.1775815397707689</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1573584438364227</v>
+        <v>0.1616437105059405</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08347169496543051</v>
+        <v>0.08465310375255605</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07656759725432349</v>
+        <v>0.07675816193131084</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1603220705850622</v>
+        <v>0.1628194097753943</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1930697865635146</v>
+        <v>0.1985540367926012</v>
       </c>
       <c r="P7" t="n">
-        <v>0.210359073349854</v>
+        <v>0.2155123785876752</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1033682198554444</v>
+        <v>0.102910679486925</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1898802818443671</v>
+        <v>0.190685634081866</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1138551609393128</v>
+        <v>0.1120867264181543</v>
       </c>
       <c r="T7" t="n">
-        <v>0.228838685999479</v>
+        <v>0.2350050016328378</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3219130086571069</v>
+        <v>0.3310015993867812</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4331434370421634</v>
+        <v>0.4487962818860014</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4614207854687559</v>
+        <v>0.476173522666637</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5558032572934732</v>
+        <v>0.5710172920695722</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6261206818160203</v>
+        <v>0.645339033096186</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6418757465333449</v>
+        <v>0.6650540331853924</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6353584076751244</v>
+        <v>0.6609525142659133</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.606833835453548</v>
+        <v>0.6063137011801536</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6721010648202145</v>
+        <v>0.6874895420143455</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1514671249683751</v>
+        <v>0.1518418971518871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1538503434457016</v>
+        <v>0.1543991221937385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1620241909922515</v>
+        <v>0.1629971930462849</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1519835455455934</v>
+        <v>0.1526690687617312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1587635531389324</v>
+        <v>0.159141281652487</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1250673305897922</v>
+        <v>0.1245908616748868</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1146322881458205</v>
+        <v>0.1142679858329815</v>
       </c>
       <c r="I8" t="n">
-        <v>0.239025438965325</v>
+        <v>0.2446270908953354</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2054387425817885</v>
+        <v>0.2126894347309044</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1701672402962086</v>
+        <v>0.178675508262632</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2270288402055953</v>
+        <v>0.2378608004787875</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2213219457811108</v>
+        <v>0.2320956437732289</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1586665656755448</v>
+        <v>0.1681945283177775</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1315833887961611</v>
+        <v>0.1388941790016578</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1080113900062644</v>
+        <v>0.1138718002349815</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1535453142163331</v>
+        <v>0.1630524609909377</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1039760380196732</v>
+        <v>0.112008097921213</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1331426908495951</v>
+        <v>0.1443120605356717</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05694778017627512</v>
+        <v>0.0615563810289194</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0330178356778623</v>
+        <v>0.03611998465136907</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01461829463530818</v>
+        <v>0.01593360335391623</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005193262377040869</v>
+        <v>0.005597485660463163</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002103355369397534</v>
+        <v>0.00234836944890421</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0004940190670179832</v>
+        <v>0.0005768662036315495</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.271044230437991e-05</v>
+        <v>0.000114651208941757</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.402793498724236e-05</v>
+        <v>1.830068968995509e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.170597643540488e-05</v>
+        <v>4.483998150561589e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.90165978841126e-06</v>
+        <v>2.921653191040523e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.141879923320739</v>
+        <v>0.1418765411999856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1362519593132994</v>
+        <v>0.1362496648407648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1359179439674531</v>
+        <v>0.1359130215030284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1386609121415836</v>
+        <v>0.1386682854632751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1397243162632924</v>
+        <v>0.1397347836002117</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1610847194887353</v>
+        <v>0.1611523418211647</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1679087296177514</v>
+        <v>0.1679818015035054</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1774247196140137</v>
+        <v>0.1774896354611443</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1793876769606125</v>
+        <v>0.1796161831480916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1974376366887184</v>
+        <v>0.1976164025776785</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1857509592454494</v>
+        <v>0.1857710367360812</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1741558618861647</v>
+        <v>0.1740382594731068</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1642659783892526</v>
+        <v>0.1640228804877741</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1237985129055374</v>
+        <v>0.123402981252674</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1506072748397955</v>
+        <v>0.1501522032492775</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1972687577232082</v>
+        <v>0.1968057859605843</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2532138810745851</v>
+        <v>0.2526473208827651</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2037531331334517</v>
+        <v>0.202991194894905</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1036355571302389</v>
+        <v>0.1026401409273333</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06273692048632545</v>
+        <v>0.06199275807911983</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04040812242039112</v>
+        <v>0.03985202110685682</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0261335432509281</v>
+        <v>0.02562763857172057</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01675107721646988</v>
+        <v>0.01638917340075435</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00659275245812438</v>
+        <v>0.00643222206322736</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.002883150757511799</v>
+        <v>0.002813136303638707</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001564628234481328</v>
+        <v>0.001524137616890912</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002101835098901986</v>
+        <v>0.0002031076888320101</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001197876303125306</v>
+        <v>0.0001156073393289758</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1460280689350198</v>
+        <v>0.1460386884868668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1616274627883419</v>
+        <v>0.1616385394977802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1629706979356716</v>
+        <v>0.1629880644547266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1565456860066672</v>
+        <v>0.1565323264511219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1536083022395456</v>
+        <v>0.1535854055537603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1178224680130641</v>
+        <v>0.1177050827900723</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1050602053665916</v>
+        <v>0.1049236862759178</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09187605404120337</v>
+        <v>0.09177327537517173</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09796236376074731</v>
+        <v>0.09761275692089498</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06084592436798483</v>
+        <v>0.06052801213564861</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04011039082074955</v>
+        <v>0.03969832372999828</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02420326912850475</v>
+        <v>0.02390115258485395</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01307031951983809</v>
+        <v>0.01287521096677855</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005307142473315199</v>
+        <v>0.005202785365360926</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004421761514304174</v>
+        <v>0.004330919550788249</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004760364972236638</v>
+        <v>0.004659194879477636</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004045296301430319</v>
+        <v>0.003945836499601753</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0020499352258614</v>
+        <v>0.001993436157058554</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0005249391163706862</v>
+        <v>0.0005064765866581286</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0001755861356992598</v>
+        <v>0.0001686635590317508</v>
       </c>
       <c r="V3" t="n">
-        <v>6.794656683062374e-05</v>
+        <v>6.502495992068789e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>8.773642835054167e-06</v>
+        <v>8.277149199029146e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.855063586830631e-06</v>
+        <v>3.623767901780777e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.070069095819362e-07</v>
+        <v>7.543118751006681e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.693241453103779e-07</v>
+        <v>1.578774013001308e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.880665781363198e-08</v>
+        <v>6.401542996051203e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.76581637427024e-09</v>
+        <v>6.25071442252554e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.182531494615256e-09</v>
+        <v>2.935390869915958e-09</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1460280737574184</v>
+        <v>0.146038693325752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1616274938245969</v>
+        <v>0.1616385705473175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1629707306019549</v>
+        <v>0.1629880971459281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1565457065186026</v>
+        <v>0.156532346932946</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1536083178290189</v>
+        <v>0.1535854210985495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1178229063981517</v>
+        <v>0.1177055222719868</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1050607415538296</v>
+        <v>0.1049242234111265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09187675733129524</v>
+        <v>0.09177397958198075</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09796340425273532</v>
+        <v>0.09761379923416176</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06084686609803554</v>
+        <v>0.06052895329745173</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07164564570739558</v>
+        <v>0.07136771944038386</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08038986550050038</v>
+        <v>0.0800601753572364</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08747730065897044</v>
+        <v>0.0870943386423117</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09534958808111459</v>
+        <v>0.09488922972540985</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09392931489842404</v>
+        <v>0.09350257355861506</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.09227412803356784</v>
+        <v>0.09191250879063284</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08972020365277056</v>
+        <v>0.08944522528080527</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09484511243434139</v>
+        <v>0.0944904691038564</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09535355967893019</v>
+        <v>0.09480654347679388</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09003965264403831</v>
+        <v>0.0894343656743336</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1048242149855925</v>
+        <v>0.1041336877438668</v>
       </c>
       <c r="W4" t="n">
-        <v>0.100122624033447</v>
+        <v>0.09951981172652354</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1163510818086269</v>
+        <v>0.1157104817026213</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1483464809658183</v>
+        <v>0.1474627717553073</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1442062118948887</v>
+        <v>0.1431236247690968</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1490643975815656</v>
+        <v>0.1479591803579388</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.173159016960743</v>
+        <v>0.1720430182175804</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1791784680146062</v>
+        <v>0.1780471548527305</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1460298891323494</v>
+        <v>0.1460405149069882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616391775575926</v>
+        <v>0.1616502592799136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1629830278856787</v>
+        <v>0.1630004038097128</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1565534280981786</v>
+        <v>0.1565400571761668</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1536141863242672</v>
+        <v>0.1535912727717453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1178199517030173</v>
+        <v>0.1177025309176806</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1050555666821519</v>
+        <v>0.104919015107702</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09186813375478006</v>
+        <v>0.09176532589846401</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09794912766651877</v>
+        <v>0.09759946623443795</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06083283356276904</v>
+        <v>0.06051491142390523</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05692366179111653</v>
+        <v>0.0565777544762683</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05309881103424891</v>
+        <v>0.05273395013984936</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04981410511346893</v>
+        <v>0.04943120129237227</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0371965397931311</v>
+        <v>0.03684577374714861</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04538911764555366</v>
+        <v>0.04496847803178289</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05916003577827227</v>
+        <v>0.0586518491955708</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07564973689092885</v>
+        <v>0.07501031408830505</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0612068552165864</v>
+        <v>0.06059921651096734</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03149991132278119</v>
+        <v>0.0310053863067846</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01922588477505311</v>
+        <v>0.01888146046823529</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01340892078971346</v>
+        <v>0.01314723315781679</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01068598346897191</v>
+        <v>0.01042982486486216</v>
       </c>
       <c r="X5" t="n">
-        <v>0.007325423981328705</v>
+        <v>0.007135464040592969</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003282195449352539</v>
+        <v>0.003189939717164696</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001671759961406327</v>
+        <v>0.001625584312478715</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.000974147223110244</v>
+        <v>0.0009458393326463948</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001439304850011258</v>
+        <v>0.000138609956656594</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.652573887623684e-05</v>
+        <v>8.323015392812611e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1380781194331427</v>
+        <v>0.1380622316476722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115446200021305</v>
+        <v>0.1154282966811518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1133257354524106</v>
+        <v>0.1132990890635474</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1221879876733547</v>
+        <v>0.1222046405312459</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1264472088812637</v>
+        <v>0.1264780949177847</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1577517303638765</v>
+        <v>0.1578658205326665</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1696887082861356</v>
+        <v>0.1698257822770772</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1795793950148862</v>
+        <v>0.1796756937328351</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1688640693657521</v>
+        <v>0.1691599531838146</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2051813841552889</v>
+        <v>0.2054799496505394</v>
       </c>
       <c r="L6" t="n">
-        <v>0.248804406195985</v>
+        <v>0.2495634226216606</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2846406333432096</v>
+        <v>0.2854622820930082</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3121139974872857</v>
+        <v>0.3129464816372003</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3559506492647905</v>
+        <v>0.3567777817176134</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3390187342632742</v>
+        <v>0.3398945825192347</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3040290357919608</v>
+        <v>0.3049622145234306</v>
       </c>
       <c r="R6" t="n">
-        <v>0.267627279739746</v>
+        <v>0.2686728049029129</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3075161388038682</v>
+        <v>0.308577924381125</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3854602217351022</v>
+        <v>0.3866202198173528</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4212968885264565</v>
+        <v>0.4222588304672061</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4011498699904872</v>
+        <v>0.4018587623238495</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4230915463757477</v>
+        <v>0.4235309137690356</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3900048849129008</v>
+        <v>0.3901621369830852</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3226428167949932</v>
+        <v>0.3226963186120302</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3062944726243306</v>
+        <v>0.3066182351442273</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.30866335132991</v>
+        <v>0.3089934622852539</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3180231596615652</v>
+        <v>0.3184527761096171</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3195804284523696</v>
+        <v>0.3200294387245546</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1436871310096249</v>
+        <v>0.1436898043047951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1469759785726245</v>
+        <v>0.1469799906197324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1474299093597984</v>
+        <v>0.1474349058976698</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1464975651503879</v>
+        <v>0.1464972151195747</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1458781709586066</v>
+        <v>0.1458754117820647</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1694705924919795</v>
+        <v>0.1695283253932564</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1771828326962971</v>
+        <v>0.1772470811928804</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1873844524983021</v>
+        <v>0.1874361832087317</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1882374135827485</v>
+        <v>0.1884669178387793</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2092848122599366</v>
+        <v>0.2094650357687255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1480200792379202</v>
+        <v>0.1475258825178776</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09933141735155375</v>
+        <v>0.09881386459098368</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06179707502179214</v>
+        <v>0.06135036902540799</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02834517870020642</v>
+        <v>0.02802315512161217</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02859125706048871</v>
+        <v>0.0282506750111335</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03530996947447836</v>
+        <v>0.03487451148265693</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03533955114599616</v>
+        <v>0.03480594548889759</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01916183632409039</v>
+        <v>0.01881924808535443</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005264978716899622</v>
+        <v>0.005130255684882161</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00189979206103566</v>
+        <v>0.001843520293909394</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0007789873566378028</v>
+        <v>0.0007532466242363884</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001135319447240092</v>
+        <v>0.000108315845327566</v>
       </c>
       <c r="X7" t="n">
-        <v>5.188305356047525e-05</v>
+        <v>4.932621789830253e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.15132490344534e-05</v>
+        <v>1.088686535082166e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.579633385536211e-06</v>
+        <v>2.433839258647254e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.074590849044272e-06</v>
+        <v>1.011691588480136e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.082114410445402e-07</v>
+        <v>1.011567080520317e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.166989367030818e-08</v>
+        <v>4.822307477103391e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1382687944117059</v>
+        <v>0.1382535261279403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1164317279222396</v>
+        <v>0.1164146785333398</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1144019547970326</v>
+        <v>0.114376418125387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1230087144112252</v>
+        <v>0.1230251283256697</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1271194975040055</v>
+        <v>0.1271496102758838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1582276315411757</v>
+        <v>0.1583403762731725</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1700432157972429</v>
+        <v>0.1701784102317908</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1799904877455194</v>
+        <v>0.1800859067416725</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1696359444108855</v>
+        <v>0.16993092343982</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2055705428672666</v>
+        <v>0.2058667351460509</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2487448570013836</v>
+        <v>0.2494958604777301</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2841801417558178</v>
+        <v>0.2849903157609616</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3114612238093921</v>
+        <v>0.3122795179481549</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3540523887819048</v>
+        <v>0.354858293070181</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3380425397781597</v>
+        <v>0.3389005680791682</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.307197708226276</v>
+        <v>0.3081339351676469</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2744040511945428</v>
+        <v>0.2754725528567125</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3114669888618006</v>
+        <v>0.3125285108667334</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3782608322996771</v>
+        <v>0.3792909772001952</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4046252753713918</v>
+        <v>0.405420401458164</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4393619378903473</v>
+        <v>0.4401900240834529</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4398439972833462</v>
+        <v>0.4407752180733316</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4695117939635264</v>
+        <v>0.470549793887146</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5191234340757676</v>
+        <v>0.5202071066750444</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5449416558043318</v>
+        <v>0.5458168277538984</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.539732332233426</v>
+        <v>0.5405763047002515</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5084635944055431</v>
+        <v>0.5091623806198915</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5010347353114102</v>
+        <v>0.5017245177709921</v>
       </c>
     </row>
   </sheetData>
